--- a/Config/Datas/reward.xlsx
+++ b/Config/Datas/reward.xlsx
@@ -28,8 +28,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>91080</author>
+  </authors>
+  <commentList>
+    <comment ref="H4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>n=arg2
+1:随机n个角色中选1个</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -40,6 +64,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>moneyMin</t>
   </si>
   <si>
@@ -49,6 +76,24 @@
     <t>cards</t>
   </si>
   <si>
+    <t>character_arg1</t>
+  </si>
+  <si>
+    <t>character_arg2</t>
+  </si>
+  <si>
+    <t>character_arg3</t>
+  </si>
+  <si>
+    <t>character_role</t>
+  </si>
+  <si>
+    <t>character_attr</t>
+  </si>
+  <si>
+    <t>character_race</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -64,6 +109,15 @@
     <t>(set#sep=,),string</t>
   </si>
   <si>
+    <t>character.Role</t>
+  </si>
+  <si>
+    <t>pawn.Attribute</t>
+  </si>
+  <si>
+    <t>pawn.Race</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -76,6 +130,9 @@
     <t>类型</t>
   </si>
   <si>
+    <t>展示</t>
+  </si>
+  <si>
     <t>钱（最低）</t>
   </si>
   <si>
@@ -85,6 +142,15 @@
     <t>获得的卡牌</t>
   </si>
   <si>
+    <t>角色参数1</t>
+  </si>
+  <si>
+    <t>角色参数2</t>
+  </si>
+  <si>
+    <t>角色参数3</t>
+  </si>
+  <si>
     <t>MONEY</t>
   </si>
   <si>
@@ -92,6 +158,36 @@
   </si>
   <si>
     <t>5,6,7,8</t>
+  </si>
+  <si>
+    <t>CHARACTER</t>
+  </si>
+  <si>
+    <t>随机3个角色中选择1个</t>
+  </si>
+  <si>
+    <t>随机3个进攻角色中选择1个</t>
+  </si>
+  <si>
+    <t>ATTACKER</t>
+  </si>
+  <si>
+    <t>随机3个守卫角色中选择1个</t>
+  </si>
+  <si>
+    <t>GUARD</t>
+  </si>
+  <si>
+    <t>随机3个妨害角色中选择1个</t>
+  </si>
+  <si>
+    <t>BLOCKER</t>
+  </si>
+  <si>
+    <t>随机3个支援角色中选择1个</t>
+  </si>
+  <si>
+    <t>SUPPORT</t>
   </si>
 </sst>
 </file>
@@ -104,7 +200,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +351,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -771,13 +873,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1030,20 +1125,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="19.6363636363636" customWidth="1"/>
-    <col min="4" max="4" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="21.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="27.5454545454545" customWidth="1"/>
+    <col min="5" max="5" width="11.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="21.9090909090909" customWidth="1"/>
+    <col min="8" max="13" width="16.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1062,96 +1159,275 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
         <v>60</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
